--- a/data/templates/cell_inventory.xlsx
+++ b/data/templates/cell_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8326ED8-A318-4B66-9ADA-193C709B6B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16153147-0F09-4C3E-AF7C-27D5CEB1264E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12420" yWindow="2610" windowWidth="24240" windowHeight="11460" xr2:uid="{B94CB888-66DB-45FA-8510-A42F0235C97A}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21345" windowHeight="14610" activeTab="1" xr2:uid="{B94CB888-66DB-45FA-8510-A42F0235C97A}"/>
   </bookViews>
   <sheets>
     <sheet name="셀 입출고 확인" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="115">
   <si>
     <t>Lot No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,14 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UFC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Navitas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Project No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,10 +241,6 @@
   </si>
   <si>
     <t>UFC(V5.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -634,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -775,19 +763,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -988,43 +963,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1033,28 +971,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1066,7 +982,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,7 +1013,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1106,7 +1022,7 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1130,52 +1046,37 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1196,9 +1097,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1208,25 +1106,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,79 +1139,58 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1657,7 +1537,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -1689,15 +1569,15 @@
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
-      <c r="B3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="B3" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
@@ -1708,30 +1588,30 @@
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="54" t="e">
+      <c r="D5" s="49" t="e">
         <f>E5+E6+E7</f>
         <v>#REF!</v>
       </c>
@@ -1751,11 +1631,11 @@
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
-      <c r="B6" s="55"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="54"/>
+        <v>41</v>
+      </c>
+      <c r="D6" s="49"/>
       <c r="E6" s="17" t="e">
         <f t="shared" ref="E6:E7" si="0">F6-G6</f>
         <v>#REF!</v>
@@ -1772,11 +1652,11 @@
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="55"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="54"/>
+        <v>50</v>
+      </c>
+      <c r="D7" s="49"/>
       <c r="E7" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -1792,15 +1672,15 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52" t="e">
+      <c r="B8" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47" t="e">
         <f>SUM(D5:D7)</f>
         <v>#REF!</v>
       </c>
-      <c r="E8" s="53"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="21" t="e">
         <f>SUM(F5:F7)</f>
         <v>#REF!</v>
@@ -1828,10 +1708,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B845B4AC-D346-47DB-A7F7-111853194625}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B1:AI27"/>
+  <dimension ref="B1:AD27"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D42" sqref="D41:D42"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1840,1619 +1720,1141 @@
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="41.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="11" width="15.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="2" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="16" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="2" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="16" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="2" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1"/>
-    <col min="22" max="22" width="16" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="2" style="1" customWidth="1"/>
-    <col min="25" max="25" width="9" style="1"/>
-    <col min="26" max="26" width="16" style="1" customWidth="1"/>
-    <col min="27" max="27" width="9" style="1"/>
-    <col min="28" max="28" width="2" customWidth="1"/>
-    <col min="30" max="30" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="2" customWidth="1"/>
-    <col min="34" max="34" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1"/>
+    <col min="11" max="11" width="2" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="16" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1"/>
+    <col min="15" max="15" width="2" style="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="16" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="2" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="16" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="1"/>
+    <col min="23" max="23" width="2" customWidth="1"/>
+    <col min="25" max="25" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2" customWidth="1"/>
+    <col min="29" max="29" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M1" s="40"/>
-    </row>
-    <row r="2" spans="2:35" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
-      <c r="M2" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
-      <c r="U2" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="V2" s="38"/>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="40" t="s">
+    <row r="1" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+      <c r="H2" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="33"/>
+      <c r="X2" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" s="38"/>
-      <c r="AC2" s="40" t="s">
-        <v>68</v>
-      </c>
+      <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-    </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B3" s="73" t="s">
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B3" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="H3" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="L3" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AB3" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="65"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="32"/>
+      <c r="H4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="V4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC4" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B5" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="27" t="e" cm="1">
+        <f t="array" ref="F5">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E5))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="2">
+        <v>24</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="2">
+        <v>17</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="V5" s="2">
+        <v>11</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B6" s="55"/>
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="79" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="N3" s="45"/>
-      <c r="Q3" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="U3" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y3" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC3" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AG3" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-    </row>
-    <row r="4" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="74"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q4" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="S4" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="W4" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z4" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA4" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC4" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD4" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE4" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG4" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH4" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI4" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="28" t="e" cm="1">
-        <f t="array" ref="F5">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E5))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G5" s="28" t="e" cm="1">
-        <f t="array" ref="G5">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E5))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H5" s="28" t="e" cm="1">
-        <f t="array" ref="H5">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E5))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I5" s="28" t="e" cm="1">
-        <f t="array" ref="I5">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E5))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J5" s="28" t="e" cm="1">
-        <f t="array" ref="J5">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E5))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K5" s="29" t="e" cm="1">
-        <f t="array" ref="K5">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E5))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="2">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" s="2">
-        <v>24</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W5" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>11</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>6</v>
-      </c>
-      <c r="AG5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B6" s="60"/>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="23" t="e" cm="1">
         <f t="array" ref="F6">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E6))</f>
         <v>#REF!</v>
       </c>
-      <c r="G6" s="23" t="e" cm="1">
-        <f t="array" ref="G6">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E6))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H6" s="23" t="e" cm="1">
-        <f t="array" ref="H6">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E6))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I6" s="23" t="e" cm="1">
-        <f t="array" ref="I6">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E6))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J6" s="23" t="e" cm="1">
-        <f t="array" ref="J6">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E6))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K6" s="24" t="e" cm="1">
-        <f t="array" ref="K6">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E6))</f>
-        <v>#REF!</v>
+      <c r="H6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="2">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="N6" s="2">
+        <v>124</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S6" s="2">
-        <v>124</v>
+        <v>51</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="W6" s="2">
+        <v>104</v>
+      </c>
+      <c r="V6" s="2">
         <v>0</v>
       </c>
+      <c r="X6" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="Y6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA6" s="2">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="2">
         <v>0</v>
       </c>
+      <c r="AB6" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="AC6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE6" s="2">
+        <v>51</v>
+      </c>
+      <c r="AD6" s="2">
         <v>0</v>
       </c>
-      <c r="AG6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B7" s="60"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B7" s="55"/>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F7" s="23" t="e" cm="1">
         <f t="array" ref="F7">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E7))</f>
         <v>#REF!</v>
       </c>
-      <c r="G7" s="23" t="e" cm="1">
-        <f t="array" ref="G7">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E7))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H7" s="23" t="e" cm="1">
-        <f t="array" ref="H7">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E7))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I7" s="23" t="e" cm="1">
-        <f t="array" ref="I7">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E7))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J7" s="23" t="e" cm="1">
-        <f t="array" ref="J7">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E7))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K7" s="24" t="e" cm="1">
-        <f t="array" ref="K7">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E7))</f>
-        <v>#REF!</v>
+      <c r="H7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" s="2">
+        <v>53</v>
+      </c>
+      <c r="N7" s="2">
+        <v>96</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R7" s="2">
         <v>0</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2" t="s">
         <v>96</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="W7" s="2">
+        <v>105</v>
+      </c>
+      <c r="V7" s="2">
         <v>0</v>
       </c>
+      <c r="X7" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="Y7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA7" s="2">
+        <v>53</v>
+      </c>
+      <c r="Z7" s="2">
         <v>0</v>
       </c>
+      <c r="AB7" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="AC7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE7" s="2">
+        <v>53</v>
+      </c>
+      <c r="AD7" s="2">
         <v>0</v>
       </c>
-      <c r="AG7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B8" s="60"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B8" s="55"/>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" s="23" t="e" cm="1">
         <f t="array" ref="F8">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E8))</f>
         <v>#REF!</v>
       </c>
-      <c r="G8" s="23" t="e" cm="1">
-        <f t="array" ref="G8">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E8))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="23" t="e" cm="1">
-        <f t="array" ref="H8">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E8))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I8" s="23" t="e" cm="1">
-        <f t="array" ref="I8">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E8))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" s="23" t="e" cm="1">
-        <f t="array" ref="J8">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E8))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K8" s="24" t="e" cm="1">
-        <f t="array" ref="K8">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E8))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="N8" s="58"/>
-      <c r="O8" s="42">
-        <f>SUM(O5:O7)</f>
+      <c r="H8" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="37">
+        <f>SUM(J5:J7)</f>
         <v>14</v>
       </c>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="R8" s="58"/>
-      <c r="S8" s="42">
-        <f>SUM(S5:S7)</f>
+      <c r="K8" s="34"/>
+      <c r="L8" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="53"/>
+      <c r="N8" s="37">
+        <f>SUM(N5:N7)</f>
         <v>244</v>
       </c>
-      <c r="T8" s="39"/>
-      <c r="U8" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="V8" s="58"/>
-      <c r="W8" s="42">
-        <f>SUM(W5:W7)</f>
+      <c r="O8" s="34"/>
+      <c r="P8" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="37">
+        <f>SUM(R5:R7)</f>
         <v>17</v>
       </c>
-      <c r="X8" s="39"/>
-      <c r="Y8" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="42">
-        <f>SUM(AA5:AA7)</f>
+      <c r="S8" s="34"/>
+      <c r="T8" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="U8" s="53"/>
+      <c r="V8" s="37">
+        <f>SUM(V5:V7)</f>
         <v>11</v>
       </c>
-      <c r="AC8" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD8" s="58"/>
-      <c r="AE8" s="42">
-        <f>SUM(AE5:AE7)</f>
+      <c r="X8" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="37">
+        <f>SUM(Z5:Z7)</f>
         <v>6</v>
       </c>
-      <c r="AG8" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH8" s="58"/>
-      <c r="AI8" s="42">
-        <f>SUM(AI5:AI7)</f>
+      <c r="AB8" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="37">
+        <f>SUM(AD5:AD7)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B9" s="60"/>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B9" s="55"/>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="23" t="e" cm="1">
         <f t="array" ref="F9">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E9))</f>
         <v>#REF!</v>
       </c>
-      <c r="G9" s="23" t="e" cm="1">
-        <f t="array" ref="G9">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E9))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H9" s="23" t="e" cm="1">
-        <f t="array" ref="H9">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E9))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I9" s="23" t="e" cm="1">
-        <f t="array" ref="I9">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E9))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" s="23" t="e" cm="1">
-        <f t="array" ref="J9">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E9))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" s="24" t="e" cm="1">
-        <f t="array" ref="K9">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E9))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B10" s="60"/>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B10" s="55"/>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="23" t="e" cm="1">
         <f t="array" ref="F10">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E10))</f>
         <v>#REF!</v>
       </c>
-      <c r="G10" s="23" t="e" cm="1">
-        <f t="array" ref="G10">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E10))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H10" s="23" t="e" cm="1">
-        <f t="array" ref="H10">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E10))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I10" s="23" t="e" cm="1">
-        <f t="array" ref="I10">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E10))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J10" s="23" t="e" cm="1">
-        <f t="array" ref="J10">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E10))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K10" s="24" t="e" cm="1">
-        <f t="array" ref="K10">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E10))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M10" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="U10" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC10" s="38" t="s">
-        <v>111</v>
-      </c>
+      <c r="H10" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="X10" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AB10" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AG10" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-    </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B11" s="60"/>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B11" s="55"/>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F11" s="23" t="e" cm="1">
         <f t="array" ref="F11">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E11))</f>
         <v>#REF!</v>
       </c>
-      <c r="G11" s="23" t="e" cm="1">
-        <f t="array" ref="G11">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E11))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H11" s="23" t="e" cm="1">
-        <f t="array" ref="H11">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E11))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I11" s="23" t="e" cm="1">
-        <f t="array" ref="I11">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E11))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J11" s="23" t="e" cm="1">
-        <f t="array" ref="J11">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E11))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K11" s="24" t="e" cm="1">
-        <f t="array" ref="K11">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E11))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="R11" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="S11" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="U11" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="V11" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="W11" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC11" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD11" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE11" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG11" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="AH11" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI11" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="61"/>
-      <c r="C12" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="31" t="e" cm="1">
+      <c r="H11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="R11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z11" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB11" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC11" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD11" s="36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="56"/>
+      <c r="C12" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="29" t="e" cm="1">
         <f t="array" ref="F12">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E12))</f>
         <v>#REF!</v>
       </c>
-      <c r="G12" s="31" t="e" cm="1">
-        <f t="array" ref="G12">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E12))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H12" s="31" t="e" cm="1">
-        <f t="array" ref="H12">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E12))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I12" s="31" t="e" cm="1">
-        <f t="array" ref="I12">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E12))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J12" s="31" t="e" cm="1">
-        <f t="array" ref="J12">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E12))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K12" s="32" t="e" cm="1">
-        <f t="array" ref="K12">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E12))</f>
-        <v>#REF!</v>
+      <c r="H12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="2">
+        <v>26</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O12" s="2">
-        <v>26</v>
+        <v>103</v>
+      </c>
+      <c r="N12" s="2">
+        <v>102</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S12" s="2">
-        <v>102</v>
-      </c>
-      <c r="U12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R12" s="2">
+        <v>112</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="V12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W12" s="2">
-        <v>112</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>2</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI12" s="2">
+      <c r="AD12" s="2">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B13" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="28" t="e" cm="1">
+    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B13" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="27" t="e" cm="1">
         <f t="array" ref="F13">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E13))</f>
         <v>#REF!</v>
       </c>
-      <c r="G13" s="28" t="e" cm="1">
-        <f t="array" ref="G13">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E13))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="28" t="e" cm="1">
-        <f t="array" ref="H13">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E13))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="28" t="e" cm="1">
-        <f t="array" ref="I13">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E13))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="28" t="e" cm="1">
-        <f t="array" ref="J13">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E13))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K13" s="29" t="e" cm="1">
-        <f t="array" ref="K13">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E13))</f>
-        <v>#REF!</v>
+      <c r="H13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O13" s="2">
+        <v>104</v>
+      </c>
+      <c r="N13" s="2">
+        <v>7</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="2">
+        <v>237</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z13" s="2">
         <v>0</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="S13" s="2">
-        <v>7</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W13" s="2">
-        <v>237</v>
+      <c r="AB13" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="AC13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI13" s="2">
+      <c r="AD13" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B14" s="55"/>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="23" t="e" cm="1">
         <f t="array" ref="F14">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E14))</f>
         <v>#REF!</v>
       </c>
-      <c r="G14" s="23" t="e" cm="1">
-        <f t="array" ref="G14">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E14))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="23" t="e" cm="1">
-        <f t="array" ref="H14">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E14))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I14" s="23" t="e" cm="1">
-        <f t="array" ref="I14">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E14))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J14" s="23" t="e" cm="1">
-        <f t="array" ref="J14">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E14))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K14" s="24" t="e" cm="1">
-        <f t="array" ref="K14">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E14))</f>
-        <v>#REF!</v>
+      <c r="H14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O14" s="2">
+        <v>105</v>
+      </c>
+      <c r="N14" s="2">
         <v>0</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="S14" s="2">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="X14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z14" s="2">
         <v>0</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="AC14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AH14" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="AI14" s="2">
+      <c r="AB14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC14" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD14" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B15" s="60"/>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B15" s="55"/>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="23" t="e" cm="1">
         <f t="array" ref="F15">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E15))</f>
         <v>#REF!</v>
       </c>
-      <c r="G15" s="23" t="e" cm="1">
-        <f t="array" ref="G15">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E15))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="23" t="e" cm="1">
-        <f t="array" ref="H15">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E15))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" s="23" t="e" cm="1">
-        <f t="array" ref="I15">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E15))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" s="23" t="e" cm="1">
-        <f t="array" ref="J15">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E15))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K15" s="24" t="e" cm="1">
-        <f t="array" ref="K15">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E15))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M15" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="N15" s="58"/>
-      <c r="O15" s="42">
-        <f>SUM(O12:O14)</f>
+      <c r="H15" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="53"/>
+      <c r="J15" s="37">
+        <f>SUM(J12:J14)</f>
         <v>26</v>
       </c>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="R15" s="58"/>
-      <c r="S15" s="42">
-        <f>SUM(S12:S14)</f>
+      <c r="K15" s="34"/>
+      <c r="L15" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="53"/>
+      <c r="N15" s="37">
+        <f>SUM(N12:N14)</f>
         <v>109</v>
       </c>
-      <c r="T15" s="39"/>
-      <c r="U15" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="V15" s="58"/>
-      <c r="W15" s="42">
-        <f>SUM(W12:W14)</f>
+      <c r="O15" s="34"/>
+      <c r="P15" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="37">
+        <f>SUM(R12:R14)</f>
         <v>349</v>
       </c>
-      <c r="X15" s="39"/>
-      <c r="AC15" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD15" s="58"/>
-      <c r="AE15" s="42">
-        <f>SUM(AE12:AE14)</f>
+      <c r="S15" s="34"/>
+      <c r="X15" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="37">
+        <f>SUM(Z12:Z14)</f>
         <v>2</v>
       </c>
-      <c r="AG15" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="42">
-        <f>AI12+AI13+AI14</f>
+      <c r="AB15" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="37">
+        <f>AD12+AD13+AD14</f>
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B16" s="60"/>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B16" s="55"/>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="23" t="e" cm="1">
         <f t="array" ref="F16">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E16))</f>
         <v>#REF!</v>
       </c>
-      <c r="G16" s="23" t="e" cm="1">
-        <f t="array" ref="G16">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E16))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="23" t="e" cm="1">
-        <f t="array" ref="H16">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E16))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="23" t="e" cm="1">
-        <f t="array" ref="I16">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E16))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" s="23" t="e" cm="1">
-        <f t="array" ref="J16">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E16))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K16" s="24" t="e" cm="1">
-        <f t="array" ref="K16">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E16))</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B17" s="60"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B17" s="55"/>
       <c r="C17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="23" t="e" cm="1">
         <f t="array" ref="F17">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E17))</f>
         <v>#REF!</v>
       </c>
-      <c r="G17" s="23" t="e" cm="1">
-        <f t="array" ref="G17">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E17))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="23" t="e" cm="1">
-        <f t="array" ref="H17">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E17))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I17" s="23" t="e" cm="1">
-        <f t="array" ref="I17">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E17))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J17" s="23" t="e" cm="1">
-        <f t="array" ref="J17">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E17))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K17" s="24" t="e" cm="1">
-        <f t="array" ref="K17">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E17))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="U17" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC17" s="38" t="s">
+      <c r="H17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="P17" s="33" t="s">
         <v>102</v>
       </c>
+      <c r="X17" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B18" s="60"/>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B18" s="55"/>
       <c r="C18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>87</v>
+        <v>29</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>84</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" s="23" t="e" cm="1">
         <f t="array" ref="F18">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E18))</f>
         <v>#REF!</v>
       </c>
-      <c r="G18" s="23" t="e" cm="1">
-        <f t="array" ref="G18">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E18))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" s="23" t="e" cm="1">
-        <f t="array" ref="H18">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E18))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I18" s="23" t="e" cm="1">
-        <f t="array" ref="I18">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E18))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J18" s="23" t="e" cm="1">
-        <f t="array" ref="J18">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E18))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K18" s="24" t="e" cm="1">
-        <f t="array" ref="K18">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E18))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U18" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="V18" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC18" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD18" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE18" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-    </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B19" s="60"/>
+      <c r="P18" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q18" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="X18" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y18" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z18" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B19" s="55"/>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" s="23" t="e" cm="1">
         <f t="array" ref="F19">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E19))</f>
         <v>#REF!</v>
       </c>
-      <c r="G19" s="23" t="e" cm="1">
-        <f t="array" ref="G19">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E19))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" s="23" t="e" cm="1">
-        <f t="array" ref="H19">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E19))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I19" s="23" t="e" cm="1">
-        <f t="array" ref="I19">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E19))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J19" s="23" t="e" cm="1">
-        <f t="array" ref="J19">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E19))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K19" s="24" t="e" cm="1">
-        <f t="array" ref="K19">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E19))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="W19" s="2">
+      <c r="P19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R19" s="2">
         <v>2</v>
       </c>
-      <c r="AC19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE19" s="2">
+      <c r="X19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z19" s="2">
         <v>11</v>
       </c>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-    </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B20" s="55"/>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F20" s="23" t="e" cm="1">
         <f t="array" ref="F20">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E20))</f>
         <v>#REF!</v>
       </c>
-      <c r="G20" s="23" t="e" cm="1">
-        <f t="array" ref="G20">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E20))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" s="23" t="e" cm="1">
-        <f t="array" ref="H20">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E20))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I20" s="23" t="e" cm="1">
-        <f t="array" ref="I20">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E20))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J20" s="23" t="e" cm="1">
-        <f t="array" ref="J20">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E20))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K20" s="24" t="e" cm="1">
-        <f t="array" ref="K20">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E20))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U20" s="2" t="s">
+      <c r="P20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="V20" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="W20" s="2">
+      <c r="Z20" s="2">
         <v>0</v>
       </c>
-      <c r="AC20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="1"/>
-      <c r="AG20" s="1"/>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-    </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B21" s="60"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B21" s="55"/>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F21" s="23" t="e" cm="1">
         <f t="array" ref="F21">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E21))</f>
         <v>#REF!</v>
       </c>
-      <c r="G21" s="23" t="e" cm="1">
-        <f t="array" ref="G21">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E21))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H21" s="23" t="e" cm="1">
-        <f t="array" ref="H21">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E21))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I21" s="23" t="e" cm="1">
-        <f t="array" ref="I21">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E21))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J21" s="23" t="e" cm="1">
-        <f t="array" ref="J21">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E21))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K21" s="24" t="e" cm="1">
-        <f t="array" ref="K21">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E21))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="W21" s="2">
+      <c r="P21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R21" s="2">
         <v>0</v>
       </c>
-      <c r="AC21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD21" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE21" s="2">
+      <c r="X21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y21" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z21" s="2">
         <v>0</v>
       </c>
-      <c r="AF21" s="1"/>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-    </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B22" s="60"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B22" s="55"/>
       <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F22" s="23" t="e" cm="1">
         <f t="array" ref="F22">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E22))</f>
         <v>#REF!</v>
       </c>
-      <c r="G22" s="23" t="e" cm="1">
-        <f t="array" ref="G22">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E22))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H22" s="23" t="e" cm="1">
-        <f t="array" ref="H22">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E22))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I22" s="23" t="e" cm="1">
-        <f t="array" ref="I22">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E22))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J22" s="23" t="e" cm="1">
-        <f t="array" ref="J22">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E22))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K22" s="24" t="e" cm="1">
-        <f t="array" ref="K22">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E22))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U22" s="57" t="s">
-        <v>59</v>
-      </c>
-      <c r="V22" s="58"/>
-      <c r="W22" s="42">
-        <f>SUM(W19:W21)</f>
+      <c r="P22" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="37">
+        <f>SUM(R19:R21)</f>
         <v>2</v>
       </c>
-      <c r="AC22" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="42">
-        <f>AE19+AE20+AE21</f>
+      <c r="X22" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="37">
+        <f>Z19+Z20+Z21</f>
         <v>11</v>
       </c>
-      <c r="AF22" s="1"/>
-      <c r="AG22" s="1"/>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-    </row>
-    <row r="23" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="60"/>
-      <c r="C23" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="31" t="e" cm="1">
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+    </row>
+    <row r="23" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="55"/>
+      <c r="C23" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="29" t="e" cm="1">
         <f t="array" ref="F23">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E23))</f>
         <v>#REF!</v>
       </c>
-      <c r="G23" s="31" t="e" cm="1">
-        <f t="array" ref="G23">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E23))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H23" s="31" t="e" cm="1">
-        <f t="array" ref="H23">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E23))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I23" s="31" t="e" cm="1">
-        <f t="array" ref="I23">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E23))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J23" s="31" t="e" cm="1">
-        <f t="array" ref="J23">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E23))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K23" s="32" t="e" cm="1">
-        <f t="array" ref="K23">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E23))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG23" s="1"/>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-    </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B24" s="60"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B24" s="55"/>
       <c r="C24" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F24" s="23" t="e" cm="1">
         <f t="array" ref="F24">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E24))</f>
         <v>#REF!</v>
       </c>
-      <c r="G24" s="23" t="e" cm="1">
-        <f t="array" ref="G24">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E24))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H24" s="23" t="e" cm="1">
-        <f t="array" ref="H24">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E24))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I24" s="23" t="e" cm="1">
-        <f t="array" ref="I24">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E24))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J24" s="23" t="e" cm="1">
-        <f t="array" ref="J24">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E24))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K24" s="24" t="e" cm="1">
-        <f t="array" ref="K24">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E24))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-    </row>
-    <row r="25" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="61"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+    </row>
+    <row r="25" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="56"/>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F25" s="23" t="e" cm="1">
         <f t="array" ref="F25">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E25))</f>
         <v>#REF!</v>
       </c>
-      <c r="G25" s="23" t="e" cm="1">
-        <f t="array" ref="G25">SUMPRODUCT((#REF!="V5.5")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E25))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H25" s="23" t="e" cm="1">
-        <f t="array" ref="H25">SUMPRODUCT((#REF!="V5.6")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E25))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I25" s="23" t="e" cm="1">
-        <f t="array" ref="I25">SUMPRODUCT((#REF!="V5.7")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E25))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J25" s="23" t="e" cm="1">
-        <f t="array" ref="J25">SUMPRODUCT((#REF!="V5.8")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E25))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K25" s="24" t="e" cm="1">
-        <f t="array" ref="K25">SUMPRODUCT((#REF!="6T")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E25))</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-    </row>
-    <row r="26" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="33" t="e">
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+    </row>
+    <row r="26" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="30" t="e">
         <f>SUM(F5:F25)</f>
         <v>#REF!</v>
       </c>
-      <c r="G26" s="33" t="e">
-        <f t="shared" ref="G26:K26" si="0">SUM(G5:G25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H26" s="33" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="I26" s="33" t="e">
-        <f>SUM(I5:I25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J26" s="33" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="K26" s="34" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:35" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64" t="e">
-        <f>SUM(F26:K26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="66"/>
+    </row>
+    <row r="27" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="41" t="e">
+        <f>SUM(F26:F26)</f>
+        <v>#REF!</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B2:K2"/>
+  <mergeCells count="22">
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="P15:Q15"/>
     <mergeCell ref="B13:B25"/>
     <mergeCell ref="B26:E26"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="AC22:AD22"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="AB8:AC8"/>
     <mergeCell ref="B5:B12"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3499,7 +2901,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
@@ -3508,7 +2910,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>4</v>
@@ -3520,7 +2922,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>8</v>
@@ -3532,10 +2934,10 @@
         <v>6</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">

--- a/data/templates/cell_inventory.xlsx
+++ b/data/templates/cell_inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\eurocell-mes-be\data\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16153147-0F09-4C3E-AF7C-27D5CEB1264E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098B6339-48F6-47CE-9718-DBE2C5C21638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21345" windowHeight="14610" activeTab="1" xr2:uid="{B94CB888-66DB-45FA-8510-A42F0235C97A}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="22425" windowHeight="10290" activeTab="1" xr2:uid="{B94CB888-66DB-45FA-8510-A42F0235C97A}"/>
   </bookViews>
   <sheets>
     <sheet name="셀 입출고 확인" sheetId="2" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="79">
   <si>
     <t>Lot No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 별 Cell 입/출고 현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V5.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>창고 내 총 셀 수량</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,14 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V5.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V5.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UFC(V5.2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,66 +240,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.0~3.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.0-4.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.0~2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cutting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 외관 찍힘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/4 지점 흔들림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파우치 들뜸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Navitas_6T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>찍힘 크기, 수량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>외관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V5.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파우치 크랙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>V5.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F-NCR7</t>
   </si>
   <si>
@@ -403,76 +331,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>≥2mm or 2개 이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>＜2mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 파우치 크랙(NCR_기타-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 파우치 크랙(NCR_기타-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 외관 : 가스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 외관 : 찍힘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10＜수량≤20</t>
-  </si>
-  <si>
-    <t>20＜수량≤30</t>
-  </si>
-  <si>
-    <t>30＜수량≤40</t>
-  </si>
-  <si>
     <t>Final 실링 Cutting 폭(mm)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. Final 실링 Cutting 폭(7±0.5mm)</t>
-  </si>
-  <si>
-    <t>2. 외관 : 돌출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4＜수량≤6</t>
-  </si>
-  <si>
-    <t>6＜수량≤8</t>
-  </si>
-  <si>
-    <t>8＜수량≤10</t>
-  </si>
-  <si>
     <t>F-NCR3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 외관 찍힘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,7 +351,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,15 +435,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -588,15 +443,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -615,14 +470,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -851,33 +700,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -982,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,31 +905,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="3" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1121,76 +923,70 @@
     <xf numFmtId="41" fontId="7" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="41" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="7" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1569,15 +1365,15 @@
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
-      <c r="B3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="B3" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
@@ -1600,18 +1396,18 @@
         <v>17</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
-      <c r="B5" s="50" t="s">
-        <v>47</v>
+      <c r="B5" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="49" t="e">
+        <v>45</v>
+      </c>
+      <c r="D5" s="42" t="e">
         <f>E5+E6+E7</f>
         <v>#REF!</v>
       </c>
@@ -1631,11 +1427,11 @@
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
-      <c r="B6" s="50"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="49"/>
+        <v>40</v>
+      </c>
+      <c r="D6" s="42"/>
       <c r="E6" s="17" t="e">
         <f t="shared" ref="E6:E7" si="0">F6-G6</f>
         <v>#REF!</v>
@@ -1652,11 +1448,11 @@
     </row>
     <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
-      <c r="B7" s="50"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="49"/>
+        <v>46</v>
+      </c>
+      <c r="D7" s="42"/>
       <c r="E7" s="17" t="e">
         <f t="shared" si="0"/>
         <v>#REF!</v>
@@ -1672,15 +1468,15 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47" t="e">
+      <c r="B8" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40" t="e">
         <f>SUM(D5:D7)</f>
         <v>#REF!</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="21" t="e">
         <f>SUM(F5:F7)</f>
         <v>#REF!</v>
@@ -1708,10 +1504,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B845B4AC-D346-47DB-A7F7-111853194625}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="B1:AD27"/>
+  <dimension ref="B1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1722,1139 +1518,416 @@
     <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="16" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1"/>
-    <col min="11" max="11" width="2" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="16" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="2" style="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="16" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="2" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="16" style="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="1"/>
-    <col min="23" max="23" width="2" customWidth="1"/>
-    <col min="25" max="25" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2" customWidth="1"/>
-    <col min="29" max="29" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="20" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="35"/>
-    </row>
-    <row r="2" spans="2:30" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="61" t="s">
+    <row r="1" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
-      <c r="H2" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="U2" s="33"/>
-      <c r="X2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-    </row>
-    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
+      <c r="E3" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="55"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="31"/>
-      <c r="H3" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="L3" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="T3" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="X3" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AB3" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-    </row>
-    <row r="4" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="65"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="32"/>
-      <c r="H4" s="36" t="s">
+      <c r="D5" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="X4" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y4" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z4" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB4" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC4" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD4" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B5" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="E5" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="27" t="e" cm="1">
         <f t="array" ref="F5">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E5))</f>
         <v>#REF!</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="2">
-        <v>12</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="2">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="45"/>
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="2">
-        <v>17</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="V5" s="2">
-        <v>11</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>6</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B6" s="55"/>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="23" t="e" cm="1">
         <f t="array" ref="F6">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E6))</f>
         <v>#REF!</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="2">
-        <v>124</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B7" s="55"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="45"/>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="F7" s="23" t="e" cm="1">
         <f t="array" ref="F7">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E7))</f>
         <v>#REF!</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="2">
-        <v>96</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B8" s="55"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="45"/>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="23" t="e" cm="1">
         <f t="array" ref="F8">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E8))</f>
         <v>#REF!</v>
       </c>
-      <c r="H8" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="37">
-        <f>SUM(J5:J7)</f>
-        <v>14</v>
-      </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="37">
-        <f>SUM(N5:N7)</f>
-        <v>244</v>
-      </c>
-      <c r="O8" s="34"/>
-      <c r="P8" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="37">
-        <f>SUM(R5:R7)</f>
-        <v>17</v>
-      </c>
-      <c r="S8" s="34"/>
-      <c r="T8" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="U8" s="53"/>
-      <c r="V8" s="37">
-        <f>SUM(V5:V7)</f>
-        <v>11</v>
-      </c>
-      <c r="X8" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y8" s="53"/>
-      <c r="Z8" s="37">
-        <f>SUM(Z5:Z7)</f>
-        <v>6</v>
-      </c>
-      <c r="AB8" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC8" s="53"/>
-      <c r="AD8" s="37">
-        <f>SUM(AD5:AD7)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B9" s="55"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="45"/>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="23" t="e" cm="1">
         <f t="array" ref="F9">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E9))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B10" s="55"/>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="45"/>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="23" t="e" cm="1">
         <f t="array" ref="F10">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E10))</f>
         <v>#REF!</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="X10" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AB10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-    </row>
-    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B11" s="55"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="45"/>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F11" s="23" t="e" cm="1">
         <f t="array" ref="F11">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E11))</f>
         <v>#REF!</v>
       </c>
-      <c r="H11" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="N11" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q11" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="R11" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="X11" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y11" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z11" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB11" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC11" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD11" s="36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="56"/>
+    </row>
+    <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="46"/>
       <c r="C12" s="24" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="F12" s="29" t="e" cm="1">
         <f t="array" ref="F12">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E12))</f>
         <v>#REF!</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J12" s="2">
-        <v>26</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N12" s="2">
-        <v>102</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="R12" s="2">
-        <v>112</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B13" s="54" t="s">
-        <v>32</v>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F13" s="27" t="e" cm="1">
         <f t="array" ref="F13">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E13))</f>
         <v>#REF!</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N13" s="2">
-        <v>7</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="R13" s="2">
-        <v>237</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD13" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B14" s="55"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="45"/>
       <c r="C14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" s="23" t="e" cm="1">
         <f t="array" ref="F14">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E14))</f>
         <v>#REF!</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="X14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC14" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD14" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B15" s="55"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="45"/>
       <c r="C15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="23" t="e" cm="1">
         <f t="array" ref="F15">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E15))</f>
         <v>#REF!</v>
       </c>
-      <c r="H15" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="37">
-        <f>SUM(J12:J14)</f>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="45"/>
+      <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="53"/>
-      <c r="N15" s="37">
-        <f>SUM(N12:N14)</f>
-        <v>109</v>
-      </c>
-      <c r="O15" s="34"/>
-      <c r="P15" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q15" s="53"/>
-      <c r="R15" s="37">
-        <f>SUM(R12:R14)</f>
-        <v>349</v>
-      </c>
-      <c r="S15" s="34"/>
-      <c r="X15" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y15" s="53"/>
-      <c r="Z15" s="37">
-        <f>SUM(Z12:Z14)</f>
-        <v>2</v>
-      </c>
-      <c r="AB15" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="37">
-        <f>AD12+AD13+AD14</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B16" s="55"/>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16" s="23" t="e" cm="1">
         <f t="array" ref="F16">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E16))</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B17" s="55"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="45"/>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="23" t="e" cm="1">
         <f t="array" ref="F17">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E17))</f>
         <v>#REF!</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="P17" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="X17" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B18" s="55"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="45"/>
       <c r="C18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>84</v>
+        <v>28</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="23" t="e" cm="1">
         <f t="array" ref="F18">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E18))</f>
         <v>#REF!</v>
       </c>
-      <c r="P18" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q18" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="R18" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="X18" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y18" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z18" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B19" s="55"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="45"/>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="23" t="e" cm="1">
         <f t="array" ref="F19">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E19))</f>
         <v>#REF!</v>
       </c>
-      <c r="P19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="R19" s="2">
-        <v>2</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>11</v>
-      </c>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B20" s="55"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="45"/>
       <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E20" s="14" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F20" s="23" t="e" cm="1">
         <f t="array" ref="F20">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E20))</f>
         <v>#REF!</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B21" s="55"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="45"/>
       <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="E21" s="14" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="F21" s="23" t="e" cm="1">
         <f t="array" ref="F21">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E21))</f>
         <v>#REF!</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y21" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B22" s="55"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="45"/>
       <c r="C22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="E22" s="14" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F22" s="23" t="e" cm="1">
         <f t="array" ref="F22">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E22))</f>
         <v>#REF!</v>
       </c>
-      <c r="P22" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="37">
-        <f>SUM(R19:R21)</f>
-        <v>2</v>
-      </c>
-      <c r="X22" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="37">
-        <f>Z19+Z20+Z21</f>
-        <v>11</v>
-      </c>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-    </row>
-    <row r="23" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="55"/>
+    </row>
+    <row r="23" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="45"/>
       <c r="C23" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="24" t="s">
-        <v>89</v>
-      </c>
       <c r="E23" s="28" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F23" s="29" t="e" cm="1">
         <f t="array" ref="F23">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E23))</f>
         <v>#REF!</v>
       </c>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="45"/>
       <c r="C24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F24" s="23" t="e" cm="1">
         <f t="array" ref="F24">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E24))</f>
         <v>#REF!</v>
       </c>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-    </row>
-    <row r="25" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="56"/>
+    </row>
+    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="46"/>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F25" s="23" t="e" cm="1">
         <f t="array" ref="F25">SUMPRODUCT((#REF!="V5.2")*(LEFT(#REF!,6)='NCR 세부 수량 파악'!E25))</f>
         <v>#REF!</v>
       </c>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-    </row>
-    <row r="26" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="59" t="s">
+    </row>
+    <row r="26" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="30" t="e">
         <f>SUM(F5:F25)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="27" spans="2:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="41" t="e">
+    <row r="27" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="34" t="e">
         <f>SUM(F26:F26)</f>
         <v>#REF!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="9">
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B13:B25"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="B13:B25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="AB8:AC8"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="T8:U8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2910,7 +1983,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>4</v>
@@ -2922,7 +1995,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>8</v>
